--- a/biology/Médecine/Syndrome_de_Greig/Syndrome_de_Greig.xlsx
+++ b/biology/Médecine/Syndrome_de_Greig/Syndrome_de_Greig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Greig  est une maladie génétique rare qui est caractérisée dans sa forme typique par l’association d’une polydactylie pré- ou postaxiale, d’un hypertélorisme orbitale et d’une macrocéphalie.
@@ -515,7 +527,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Délétion ou translocation impliquant le locus p13 du chromosome 7.
 Ces remaniements chromosomiques atteignent le gène GLI3 codant la protéine doigts de zinc.
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Polydactylie préaxiale (du côté radial, du pouls) ou un pouce ou un orteil anormalement large
 Hypertélorisme ou distance interorbitaire plus grande que la taille d’une orbite
@@ -582,17 +598,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Clinique
-Se fait si un enfant présentant les signes ci-dessus, un de ses parents présente les mêmes signes 
-Génétique
-Plusieurs techniques génétiques permettent de rechercher les anomalies du locus p13 7
-Hybridation in situ par fluorescence
-Hybridation comarative génomique
-Analyse pour détecter des grandes délétions
-Dépistage des mutations
-Diagnostic différentiel
-Syndrome orofaciodigital type 1
-Syndrome acrocalleux type Schinzel</t>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se fait si un enfant présentant les signes ci-dessus, un de ses parents présente les mêmes signes 
+</t>
         </is>
       </c>
     </row>
@@ -617,13 +630,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs techniques génétiques permettent de rechercher les anomalies du locus p13 7
+Hybridation in situ par fluorescence
+Hybridation comarative génomique
+Analyse pour détecter des grandes délétions
+Dépistage des mutations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Greig</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Greig</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome orofaciodigital type 1
+Syndrome acrocalleux type Schinzel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Greig</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Greig</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignements sur les maladies rares et les médicaments orphelins
-(en) Leslie G Biesecker, Greig Cephalopolysyndactyly Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) Leslie G Biesecker, Greig Cephalopolysyndactyly Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
